--- a/data/BppTrend/BOE Valuation Factors.xlsx
+++ b/data/BppTrend/BOE Valuation Factors.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yogsingh5\Downloads\sample data files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yogsingh5\Downloads\sample data files\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11760" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Document Details" sheetId="12" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="_Toc212252264" localSheetId="2">'Semiconductor Val Factors'!#REF!</definedName>
-    <definedName name="_Toc212252265" localSheetId="3">'Biopharmaceutical Val Factors'!$A$23</definedName>
+    <definedName name="_Toc212252265" localSheetId="3">'Biopharmaceutical Val Factors'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913" calcMode="manual"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>Tabs</t>
   </si>
@@ -104,29 +104,23 @@
     <t>Schedule A - Tools, Molds, Dies, Jigs</t>
   </si>
   <si>
-    <t>Schedule B -  Fixtures</t>
-  </si>
-  <si>
     <t xml:space="preserve">Year Acquired </t>
   </si>
   <si>
     <t>Document Processors</t>
   </si>
   <si>
-    <t>Prior</t>
-  </si>
-  <si>
     <t>Offset Lithographic Printing Presses</t>
   </si>
   <si>
-    <t>ds</t>
+    <t>Schedule B - Fixture</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -141,25 +135,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -210,10 +185,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -234,63 +209,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -606,7 +557,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -676,10 +627,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -690,113 +641,124 @@
     <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="19" customFormat="1">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:3" s="15" customFormat="1">
+      <c r="A1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="15" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B2">
-        <v>54</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
+        <v>59</v>
+      </c>
+      <c r="C2">
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B3">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C3">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B4">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B5">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C5">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C6">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
       <c r="C10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>2010</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
         <v>2</v>
       </c>
     </row>
@@ -807,10 +769,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -821,340 +783,248 @@
     <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="20" customFormat="1">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:6" s="16" customFormat="1">
+      <c r="A1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="21" customFormat="1" ht="15">
-      <c r="A2" s="17">
+    <row r="2" spans="1:6" s="17" customFormat="1" ht="15">
+      <c r="A2" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B2" s="11">
+        <v>82</v>
+      </c>
+      <c r="C2" s="8">
+        <v>93</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+    </row>
+    <row r="3" spans="1:6" s="17" customFormat="1" ht="15">
+      <c r="A3" s="13">
         <v>2018</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B3" s="11">
         <v>78</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C3" s="8">
         <v>91</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-    </row>
-    <row r="3" spans="1:6" ht="15">
-      <c r="A3" s="17">
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+    </row>
+    <row r="4" spans="1:6" ht="15">
+      <c r="A4" s="13">
         <v>2017</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B4" s="14">
         <v>61</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C4" s="9">
         <v>84</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-    </row>
-    <row r="4" spans="1:6" ht="15">
-      <c r="A4" s="6">
-        <v>2016</v>
-      </c>
-      <c r="B4" s="18">
-        <v>46</v>
-      </c>
-      <c r="C4" s="9">
-        <v>77</v>
-      </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
     </row>
     <row r="5" spans="1:6" ht="15">
       <c r="A5" s="6">
-        <v>2015</v>
-      </c>
-      <c r="B5" s="18">
-        <v>34</v>
+        <v>2016</v>
+      </c>
+      <c r="B5" s="14">
+        <v>46</v>
       </c>
       <c r="C5" s="9">
-        <v>67</v>
-      </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
+        <v>77</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
     </row>
     <row r="6" spans="1:6" ht="15">
       <c r="A6" s="6">
-        <v>2014</v>
-      </c>
-      <c r="B6" s="18">
-        <v>25</v>
+        <v>2015</v>
+      </c>
+      <c r="B6" s="14">
+        <v>34</v>
       </c>
       <c r="C6" s="9">
-        <v>58</v>
-      </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
+        <v>67</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
     </row>
     <row r="7" spans="1:6" ht="15">
       <c r="A7" s="6">
-        <v>2013</v>
-      </c>
-      <c r="B7" s="18">
-        <v>18</v>
+        <v>2014</v>
+      </c>
+      <c r="B7" s="14">
+        <v>25</v>
       </c>
       <c r="C7" s="9">
-        <v>50</v>
-      </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
+        <v>58</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
     </row>
     <row r="8" spans="1:6" ht="15">
       <c r="A8" s="6">
-        <v>2012</v>
-      </c>
-      <c r="B8" s="18">
-        <v>12</v>
+        <v>2013</v>
+      </c>
+      <c r="B8" s="14">
+        <v>18</v>
       </c>
       <c r="C8" s="9">
-        <v>42</v>
-      </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
+        <v>50</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:6" ht="15">
       <c r="A9" s="6">
-        <v>2011</v>
-      </c>
-      <c r="B9" s="18">
-        <v>8</v>
+        <v>2012</v>
+      </c>
+      <c r="B9" s="14">
+        <v>12</v>
       </c>
       <c r="C9" s="9">
-        <v>34</v>
-      </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
+        <v>42</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
     </row>
     <row r="10" spans="1:6" ht="15">
       <c r="A10" s="6">
-        <v>2010</v>
-      </c>
-      <c r="B10" s="17"/>
+        <v>2011</v>
+      </c>
+      <c r="B10" s="14">
+        <v>8</v>
+      </c>
       <c r="C10" s="9">
-        <v>28</v>
-      </c>
-      <c r="F10" s="16"/>
+        <v>34</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
     </row>
     <row r="11" spans="1:6" ht="15">
       <c r="A11" s="6">
-        <v>2009</v>
-      </c>
-      <c r="B11" s="17"/>
+        <v>2010</v>
+      </c>
+      <c r="B11" s="13">
+        <v>10</v>
+      </c>
       <c r="C11" s="9">
-        <v>21</v>
-      </c>
-      <c r="F11" s="16"/>
+        <v>28</v>
+      </c>
+      <c r="F11" s="12"/>
     </row>
     <row r="12" spans="1:6" ht="15">
       <c r="A12" s="6">
-        <v>2008</v>
-      </c>
-      <c r="B12" s="17"/>
+        <v>2009</v>
+      </c>
+      <c r="B12" s="13">
+        <v>12</v>
+      </c>
       <c r="C12" s="9">
-        <v>17</v>
-      </c>
-      <c r="F12" s="16"/>
+        <v>21</v>
+      </c>
+      <c r="F12" s="12"/>
     </row>
     <row r="13" spans="1:6" ht="15">
       <c r="A13" s="6">
-        <v>2007</v>
-      </c>
-      <c r="B13" s="17"/>
+        <v>2008</v>
+      </c>
+      <c r="B13" s="13">
+        <v>13</v>
+      </c>
       <c r="C13" s="9">
-        <v>13</v>
-      </c>
-      <c r="F13" s="16"/>
+        <v>17</v>
+      </c>
+      <c r="F13" s="12"/>
     </row>
     <row r="14" spans="1:6" ht="15">
       <c r="A14" s="6">
-        <v>2006</v>
-      </c>
-      <c r="B14" s="17"/>
+        <v>2007</v>
+      </c>
+      <c r="B14" s="13">
+        <v>14</v>
+      </c>
       <c r="C14" s="9">
-        <v>12</v>
-      </c>
-      <c r="F14" s="16"/>
+        <v>13</v>
+      </c>
+      <c r="F14" s="12"/>
     </row>
     <row r="15" spans="1:6" ht="15">
       <c r="A15" s="6">
-        <v>2005</v>
-      </c>
-      <c r="B15" s="17"/>
+        <v>2006</v>
+      </c>
+      <c r="B15" s="13">
+        <v>15</v>
+      </c>
       <c r="C15" s="9">
-        <v>13</v>
-      </c>
-      <c r="F15" s="16"/>
+        <v>12</v>
+      </c>
+      <c r="F15" s="12"/>
     </row>
     <row r="16" spans="1:6" ht="15">
       <c r="A16" s="6">
-        <v>2004</v>
-      </c>
-      <c r="B16" s="17"/>
+        <v>2005</v>
+      </c>
+      <c r="B16" s="13">
+        <v>12</v>
+      </c>
       <c r="C16" s="9">
         <v>13</v>
       </c>
-      <c r="F16" s="16"/>
+      <c r="F16" s="12"/>
     </row>
     <row r="17" spans="1:6" ht="15">
       <c r="A17" s="6">
-        <v>2003</v>
-      </c>
-      <c r="B17" s="17"/>
+        <v>2004</v>
+      </c>
+      <c r="B17" s="13">
+        <v>12</v>
+      </c>
       <c r="C17" s="9">
         <v>13</v>
       </c>
-      <c r="F17" s="16"/>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="F17" s="12"/>
+    </row>
+    <row r="18" spans="1:6" ht="15">
       <c r="A18" s="6">
+        <v>2003</v>
+      </c>
+      <c r="B18" s="13">
+        <v>14</v>
+      </c>
+      <c r="C18" s="9">
+        <v>13</v>
+      </c>
+      <c r="F18" s="12"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="6">
         <v>2002</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="18">
+      <c r="B19" s="13">
+        <v>12</v>
+      </c>
+      <c r="C19" s="14">
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-    </row>
-    <row r="27" spans="1:6" ht="15">
-      <c r="B27" s="24"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-    </row>
-    <row r="28" spans="1:6" ht="15">
-      <c r="B28" s="24"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-    </row>
-    <row r="29" spans="1:6" ht="15">
-      <c r="B29" s="12"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-    </row>
-    <row r="30" spans="1:6" ht="15">
-      <c r="B30" s="11"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-    </row>
-    <row r="31" spans="1:6" ht="15">
-      <c r="B31" s="11"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-    </row>
-    <row r="32" spans="1:6" ht="15">
-      <c r="B32" s="11"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-    </row>
-    <row r="33" spans="1:4" ht="15">
-      <c r="B33" s="11"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-    </row>
-    <row r="34" spans="1:4" ht="15">
-      <c r="B34" s="11"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-    </row>
-    <row r="35" spans="1:4" ht="15">
-      <c r="B35" s="11"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-    </row>
-    <row r="36" spans="1:4" ht="15">
-      <c r="B36" s="11"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-    </row>
-    <row r="37" spans="1:4" ht="15">
-      <c r="B37" s="11"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-    </row>
-    <row r="38" spans="1:4" ht="15">
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="7"/>
-    </row>
-    <row r="39" spans="1:4" ht="15">
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="7"/>
-    </row>
-    <row r="40" spans="1:4" ht="15">
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="7"/>
-    </row>
-    <row r="41" spans="1:4" ht="15">
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="7"/>
-    </row>
-    <row r="42" spans="1:4" ht="15">
-      <c r="A42" s="7"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="7"/>
-    </row>
-    <row r="43" spans="1:4" ht="15">
-      <c r="A43" s="7"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="7"/>
-    </row>
-    <row r="44" spans="1:4" ht="15">
-      <c r="A44" s="7"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="7"/>
-    </row>
-    <row r="45" spans="1:4" ht="15">
-      <c r="A45" s="7"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="7"/>
-    </row>
-    <row r="46" spans="1:4" ht="15">
-      <c r="A46" s="7"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="7"/>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="7"/>
+    <row r="20" spans="1:6">
+      <c r="B20" s="13"/>
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="B21" s="13"/>
+      <c r="C21" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1166,9 +1036,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L57"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -1180,8 +1052,8 @@
     <col min="6" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="20" customFormat="1">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:5" s="16" customFormat="1">
+      <c r="A1" s="18" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -1194,501 +1066,248 @@
         <v>21</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="6">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B2" s="7">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C2" s="7">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D2" s="7">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E2" s="7">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="6">
-        <v>2017</v>
-      </c>
-      <c r="B3" s="8">
-        <v>71</v>
-      </c>
-      <c r="C3" s="8">
+        <v>2018</v>
+      </c>
+      <c r="B3" s="7">
         <v>85</v>
       </c>
-      <c r="D3" s="8">
-        <v>80</v>
-      </c>
-      <c r="E3" s="8">
-        <v>85</v>
+      <c r="C3" s="7">
+        <v>92</v>
+      </c>
+      <c r="D3" s="7">
+        <v>89</v>
+      </c>
+      <c r="E3" s="7">
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="6">
-        <v>2016</v>
-      </c>
-      <c r="B4" s="9">
-        <v>57</v>
-      </c>
-      <c r="C4" s="9">
-        <v>79</v>
-      </c>
-      <c r="D4" s="9">
-        <v>70</v>
-      </c>
-      <c r="E4" s="9">
-        <v>79</v>
+        <v>2017</v>
+      </c>
+      <c r="B4" s="8">
+        <v>71</v>
+      </c>
+      <c r="C4" s="8">
+        <v>85</v>
+      </c>
+      <c r="D4" s="8">
+        <v>80</v>
+      </c>
+      <c r="E4" s="8">
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="6">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B5" s="9">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="C5" s="9">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="D5" s="9">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="E5" s="9">
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="6">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B6" s="9">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C6" s="9">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="D6" s="9">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E6" s="9">
-        <v>60</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="6">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B7" s="9">
-        <v>18.900000000000002</v>
+        <v>30</v>
       </c>
       <c r="C7" s="9">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D7" s="9">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E7" s="9">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="6">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B8" s="9">
-        <v>11.66</v>
+        <v>19</v>
       </c>
       <c r="C8" s="9">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D8" s="9">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E8" s="9">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="6">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B9" s="9">
-        <v>10.9</v>
+        <v>12</v>
       </c>
       <c r="C9" s="9">
-        <v>35.97</v>
+        <v>43</v>
       </c>
       <c r="D9" s="9">
-        <v>20.71</v>
+        <v>28</v>
       </c>
       <c r="E9" s="9">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="6">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B10" s="9">
         <v>11</v>
       </c>
       <c r="C10" s="9">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D10" s="9">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E10" s="9">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="6">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B11" s="9">
         <v>11</v>
       </c>
       <c r="C11" s="9">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D11" s="9">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E11" s="9">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="6">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B12" s="9">
         <v>11</v>
       </c>
       <c r="C12" s="9">
-        <v>17.25</v>
+        <v>23</v>
       </c>
       <c r="D12" s="9">
         <v>11</v>
       </c>
       <c r="E12" s="9">
-        <v>17.25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="6">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B13" s="9">
         <v>11</v>
       </c>
       <c r="C13" s="9">
-        <v>12.98</v>
+        <v>17</v>
       </c>
       <c r="D13" s="9">
         <v>11</v>
       </c>
       <c r="E13" s="9">
-        <v>12.98</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="6">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B14" s="9">
         <v>11</v>
       </c>
       <c r="C14" s="9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D14" s="9">
         <v>11</v>
       </c>
       <c r="E14" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="6">
+        <v>2006</v>
+      </c>
+      <c r="B15" s="9">
+        <v>11</v>
+      </c>
+      <c r="C15" s="9">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-    </row>
-    <row r="23" spans="1:5" ht="15.75">
-      <c r="A23" s="10"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="24"/>
-    </row>
-    <row r="24" spans="1:5" ht="15.75">
-      <c r="A24" s="11"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="25"/>
-    </row>
-    <row r="25" spans="1:5" ht="15">
-      <c r="A25" s="11"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="24"/>
-    </row>
-    <row r="26" spans="1:5" ht="15">
-      <c r="A26" s="12"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="24"/>
-    </row>
-    <row r="27" spans="1:5" ht="15">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="24"/>
-    </row>
-    <row r="28" spans="1:5" ht="15">
-      <c r="A28" s="11"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-    </row>
-    <row r="29" spans="1:5" ht="15">
-      <c r="A29" s="24"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="12"/>
-    </row>
-    <row r="30" spans="1:5" ht="15">
-      <c r="A30" s="24"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="12"/>
-    </row>
-    <row r="31" spans="1:5" ht="15">
-      <c r="A31" s="24"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-    </row>
-    <row r="32" spans="1:5" ht="15">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-    </row>
-    <row r="33" spans="1:12" ht="15">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="I33" s="13"/>
-    </row>
-    <row r="34" spans="1:12" ht="15">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="I34" s="13"/>
-    </row>
-    <row r="35" spans="1:12" ht="15">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="I35" s="13"/>
-    </row>
-    <row r="36" spans="1:12" ht="15">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="I36" s="13"/>
-    </row>
-    <row r="37" spans="1:12" ht="15">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="I37" s="13"/>
-    </row>
-    <row r="38" spans="1:12" ht="15">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="I38" s="13"/>
-    </row>
-    <row r="39" spans="1:12" ht="15">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="I39" s="13"/>
-    </row>
-    <row r="40" spans="1:12" ht="15">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="I40" s="13"/>
-    </row>
-    <row r="41" spans="1:12" ht="15">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="I41" s="13"/>
-    </row>
-    <row r="42" spans="1:12" ht="15">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="I42" s="13"/>
-    </row>
-    <row r="43" spans="1:12" ht="15">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="I43" s="13"/>
-    </row>
-    <row r="44" spans="1:12" ht="15">
-      <c r="A44" s="11"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="I44" s="13"/>
-    </row>
-    <row r="45" spans="1:12">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="I45" s="13"/>
-    </row>
-    <row r="46" spans="1:12">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="I46" s="13"/>
-      <c r="J46" s="13"/>
-      <c r="K46" s="13"/>
-      <c r="L46" s="13"/>
-    </row>
-    <row r="47" spans="1:12">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-    </row>
-    <row r="48" spans="1:12">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="7"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="7"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="7"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="7"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="7"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="7"/>
+      <c r="D15" s="9">
+        <v>11</v>
+      </c>
+      <c r="E15" s="9">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" verticalDpi="599" r:id="rId1"/>
@@ -1698,9 +1317,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -1708,99 +1329,107 @@
     <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="19" customFormat="1">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:2" s="15" customFormat="1">
+      <c r="A1" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>23</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B2">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B3">
-        <v>47</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B4">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B5">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B6">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B7">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B8">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B9">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B10">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B11">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="1">
+      <c r="A12">
+        <v>2009</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="3">
+        <v>2008</v>
+      </c>
+      <c r="B13" s="1">
         <v>10</v>
       </c>
     </row>
@@ -1811,10 +1440,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1823,139 +1452,131 @@
     <col min="2" max="2" width="35.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="19" customFormat="1">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:2" s="15" customFormat="1">
+      <c r="A1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="19" customFormat="1">
-      <c r="A2" s="22">
-        <v>2020</v>
-      </c>
-      <c r="B2" s="23">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="19" customFormat="1">
-      <c r="A3" s="22">
+      <c r="B1" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2">
         <v>2019</v>
       </c>
-      <c r="B3" s="23">
+      <c r="B2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B3">
         <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B4">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B5">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B6">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B7">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B8">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B9">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B10">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B11">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B12">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B13">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B14">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B15">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="2">
-        <v>2006</v>
-      </c>
-      <c r="B16">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="1">
+      <c r="A16" s="3">
+        <v>2005</v>
+      </c>
+      <c r="B16" s="1">
         <v>10</v>
       </c>
     </row>
@@ -1974,6 +1595,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010011DC045639EA034996508D08AC8F77A4" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7dbf7a819558f3aedc25624ce3a3d643">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="928b0ed4-59de-4866-ab39-c285c276cabe" xmlns:ns3="10427840-475b-49c9-8fdb-b62ed56f40ff" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="999177114d252612893f88a2cdbefd84" ns2:_="" ns3:_="">
     <xsd:import namespace="928b0ed4-59de-4866-ab39-c285c276cabe"/>
@@ -2190,12 +1817,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6EFFB5BE-0098-48C2-BBB0-46C3FEF9D505}">
   <ds:schemaRefs>
@@ -2205,6 +1826,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3042FB5-FB08-4B9F-9044-0268488FBE5E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{776E15DF-FD92-4098-830A-BCD94A53755E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2221,13 +1851,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3042FB5-FB08-4B9F-9044-0268488FBE5E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/BppTrend/BOE Valuation Factors.xlsx
+++ b/data/BppTrend/BOE Valuation Factors.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yogsingh5\Downloads\sample data files\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sikbhamb\Project\APAS_Automation\qa_automation\data\BppTrend\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11760" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11760" tabRatio="885" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Document Details" sheetId="12" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>Tabs</t>
   </si>
@@ -114,6 +114,12 @@
   </si>
   <si>
     <t>Schedule B - Fixture</t>
+  </si>
+  <si>
+    <t>Junk_A</t>
+  </si>
+  <si>
+    <t>Junk_B</t>
   </si>
 </sst>
 </file>
@@ -560,10 +566,10 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="2" max="2" width="39.42578125" customWidth="1"/>
-    <col min="3" max="3" width="33.5703125" customWidth="1"/>
+    <col min="2" max="2" width="39.453125" customWidth="1"/>
+    <col min="3" max="3" width="33.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -629,19 +635,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="15" customFormat="1">
+    <row r="1" spans="1:3" s="15" customFormat="1" ht="13">
       <c r="A1" s="15" t="s">
         <v>14</v>
       </c>
@@ -659,8 +663,8 @@
       <c r="B2">
         <v>59</v>
       </c>
-      <c r="C2">
-        <v>60</v>
+      <c r="C2" s="7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -670,8 +674,8 @@
       <c r="B3">
         <v>54</v>
       </c>
-      <c r="C3">
-        <v>55</v>
+      <c r="C3" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -771,19 +775,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="12.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.7265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.1796875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="16" customFormat="1">
+    <row r="1" spans="1:6" s="16" customFormat="1" ht="13">
       <c r="A1" s="15" t="s">
         <v>14</v>
       </c>
@@ -794,33 +796,33 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="17" customFormat="1" ht="15">
+    <row r="2" spans="1:6" s="17" customFormat="1" ht="14">
       <c r="A2" s="13">
         <v>2019</v>
       </c>
       <c r="B2" s="11">
         <v>82</v>
       </c>
-      <c r="C2" s="8">
-        <v>93</v>
+      <c r="C2" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" s="17" customFormat="1" ht="15">
+    <row r="3" spans="1:6" s="17" customFormat="1" ht="14">
       <c r="A3" s="13">
         <v>2018</v>
       </c>
       <c r="B3" s="11">
         <v>78</v>
       </c>
-      <c r="C3" s="8">
-        <v>91</v>
+      <c r="C3" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
     </row>
-    <row r="4" spans="1:6" ht="15">
+    <row r="4" spans="1:6" ht="14">
       <c r="A4" s="13">
         <v>2017</v>
       </c>
@@ -833,7 +835,7 @@
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
     </row>
-    <row r="5" spans="1:6" ht="15">
+    <row r="5" spans="1:6" ht="14">
       <c r="A5" s="6">
         <v>2016</v>
       </c>
@@ -846,7 +848,7 @@
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
     </row>
-    <row r="6" spans="1:6" ht="15">
+    <row r="6" spans="1:6" ht="14">
       <c r="A6" s="6">
         <v>2015</v>
       </c>
@@ -859,7 +861,7 @@
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
     </row>
-    <row r="7" spans="1:6" ht="15">
+    <row r="7" spans="1:6" ht="14">
       <c r="A7" s="6">
         <v>2014</v>
       </c>
@@ -872,7 +874,7 @@
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
     </row>
-    <row r="8" spans="1:6" ht="15">
+    <row r="8" spans="1:6" ht="14">
       <c r="A8" s="6">
         <v>2013</v>
       </c>
@@ -885,7 +887,7 @@
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
     </row>
-    <row r="9" spans="1:6" ht="15">
+    <row r="9" spans="1:6" ht="14">
       <c r="A9" s="6">
         <v>2012</v>
       </c>
@@ -898,7 +900,7 @@
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
     </row>
-    <row r="10" spans="1:6" ht="15">
+    <row r="10" spans="1:6" ht="14">
       <c r="A10" s="6">
         <v>2011</v>
       </c>
@@ -911,7 +913,7 @@
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
     </row>
-    <row r="11" spans="1:6" ht="15">
+    <row r="11" spans="1:6" ht="14">
       <c r="A11" s="6">
         <v>2010</v>
       </c>
@@ -923,7 +925,7 @@
       </c>
       <c r="F11" s="12"/>
     </row>
-    <row r="12" spans="1:6" ht="15">
+    <row r="12" spans="1:6" ht="14">
       <c r="A12" s="6">
         <v>2009</v>
       </c>
@@ -935,7 +937,7 @@
       </c>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:6" ht="15">
+    <row r="13" spans="1:6" ht="14">
       <c r="A13" s="6">
         <v>2008</v>
       </c>
@@ -947,7 +949,7 @@
       </c>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:6" ht="15">
+    <row r="14" spans="1:6" ht="14">
       <c r="A14" s="6">
         <v>2007</v>
       </c>
@@ -959,7 +961,7 @@
       </c>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:6" ht="15">
+    <row r="15" spans="1:6" ht="14">
       <c r="A15" s="6">
         <v>2006</v>
       </c>
@@ -971,7 +973,7 @@
       </c>
       <c r="F15" s="12"/>
     </row>
-    <row r="16" spans="1:6" ht="15">
+    <row r="16" spans="1:6" ht="14">
       <c r="A16" s="6">
         <v>2005</v>
       </c>
@@ -983,7 +985,7 @@
       </c>
       <c r="F16" s="12"/>
     </row>
-    <row r="17" spans="1:6" ht="15">
+    <row r="17" spans="1:6" ht="14">
       <c r="A17" s="6">
         <v>2004</v>
       </c>
@@ -995,7 +997,7 @@
       </c>
       <c r="F17" s="12"/>
     </row>
-    <row r="18" spans="1:6" ht="15">
+    <row r="18" spans="1:6" ht="14">
       <c r="A18" s="6">
         <v>2003</v>
       </c>
@@ -1038,21 +1040,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.5703125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="40.5703125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="21.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="12.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.7265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.54296875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="40.54296875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="21.54296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.1796875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="16" customFormat="1">
+    <row r="1" spans="1:5" s="16" customFormat="1" ht="13">
       <c r="A1" s="18" t="s">
         <v>14</v>
       </c>
@@ -1082,8 +1082,8 @@
       <c r="D2" s="7">
         <v>90</v>
       </c>
-      <c r="E2" s="7">
-        <v>94</v>
+      <c r="E2" s="7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1099,8 +1099,8 @@
       <c r="D3" s="7">
         <v>89</v>
       </c>
-      <c r="E3" s="7">
-        <v>92</v>
+      <c r="E3" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1319,17 +1319,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="15" customFormat="1">
+    <row r="1" spans="1:2" s="15" customFormat="1" ht="13">
       <c r="A1" s="15" t="s">
         <v>22</v>
       </c>
@@ -1341,16 +1339,16 @@
       <c r="A2">
         <v>2019</v>
       </c>
-      <c r="B2">
-        <v>65</v>
+      <c r="B2" s="7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
         <v>2018</v>
       </c>
-      <c r="B3">
-        <v>58</v>
+      <c r="B3" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1442,17 +1440,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="15" customFormat="1">
+    <row r="1" spans="1:2" s="15" customFormat="1" ht="13">
       <c r="A1" s="18" t="s">
         <v>14</v>
       </c>
@@ -1464,16 +1460,16 @@
       <c r="A2" s="2">
         <v>2019</v>
       </c>
-      <c r="B2">
-        <v>93</v>
+      <c r="B2" s="7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>2018</v>
       </c>
-      <c r="B3">
-        <v>87</v>
+      <c r="B3" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2">
